--- a/Code/Results/Cases/Case_2_223/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_223/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.477277031751385</v>
+        <v>0.7819745094127484</v>
       </c>
       <c r="C2">
-        <v>0.7168376978056301</v>
+        <v>0.2335998566035755</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.447241517731385</v>
+        <v>0.4264233615170383</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007662558337940172</v>
+        <v>0.002364026894831113</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1248444167265568</v>
+        <v>0.2574922939564068</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.652556917327388</v>
+        <v>0.7925338793933321</v>
       </c>
       <c r="O2">
-        <v>1.21329774641984</v>
+        <v>1.23301000020362</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.155922469113762</v>
+        <v>0.6834810727099807</v>
       </c>
       <c r="C3">
-        <v>0.627634014073351</v>
+        <v>0.2059933084904344</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.241899340264325</v>
+        <v>0.3719117739346842</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007707795861796468</v>
+        <v>0.00236688649945028</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1235758124792667</v>
+        <v>0.2613142563083848</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6483390076001072</v>
+        <v>0.7927348538646513</v>
       </c>
       <c r="O3">
-        <v>1.093929637278904</v>
+        <v>1.220348518214905</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.959043466759965</v>
+        <v>0.6228653617803843</v>
       </c>
       <c r="C4">
-        <v>0.5730285625126612</v>
+        <v>0.1889585801924625</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.118268429457686</v>
+        <v>0.338534222790301</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007736331300944137</v>
+        <v>0.002368733479126359</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1235142702449039</v>
+        <v>0.2639244056750307</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.646604150611708</v>
+        <v>0.7932216771413536</v>
       </c>
       <c r="O4">
-        <v>1.024831387962706</v>
+        <v>1.213853809957669</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.878885001585104</v>
+        <v>0.598129734498599</v>
       </c>
       <c r="C5">
-        <v>0.5508042789475098</v>
+        <v>0.1819957606428488</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.068409462852046</v>
+        <v>0.3249540513085094</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007748157723267695</v>
+        <v>0.002369509138759968</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1236570480136443</v>
+        <v>0.2650540123980285</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6461037788426296</v>
+        <v>0.7935116613955628</v>
       </c>
       <c r="O5">
-        <v>0.9976351880281982</v>
+        <v>1.211527034112919</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.865578008649607</v>
+        <v>0.5940203661940018</v>
       </c>
       <c r="C6">
-        <v>0.5471152543027245</v>
+        <v>0.1808383239067837</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.060159319474465</v>
+        <v>0.3227003151194339</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007750133647716549</v>
+        <v>0.002369639327621988</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1236905431100865</v>
+        <v>0.2652455572543637</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6460329356430776</v>
+        <v>0.7935653518793018</v>
       </c>
       <c r="O6">
-        <v>0.9931747836963893</v>
+        <v>1.211159939588555</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.95796218069006</v>
+        <v>0.6225319056602814</v>
       </c>
       <c r="C7">
-        <v>0.5727287426423402</v>
+        <v>0.1888647621275652</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.11759402076278</v>
+        <v>0.3383509914541918</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0007736489986373266</v>
+        <v>0.002368743846688401</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1235155321262553</v>
+        <v>0.2639393733136224</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.64659657660237</v>
+        <v>0.7932252168016518</v>
       </c>
       <c r="O7">
-        <v>1.024460833807495</v>
+        <v>1.213821137583096</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.366360110606706</v>
+        <v>0.7480437027278981</v>
       </c>
       <c r="C8">
-        <v>0.6860370895847154</v>
+        <v>0.2240986703062902</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.375871466696239</v>
+        <v>0.4076073590350404</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007678003015600256</v>
+        <v>0.00236499400907926</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1242503035658338</v>
+        <v>0.2587552491693152</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6509199088952045</v>
+        <v>0.7925278709727621</v>
       </c>
       <c r="O8">
-        <v>1.171211192551766</v>
+        <v>1.228377628650321</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.172577523737573</v>
+        <v>0.9930240884717705</v>
       </c>
       <c r="C9">
-        <v>0.9102509972536836</v>
+        <v>0.2925213008762739</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.906552547264184</v>
+        <v>0.5442463263346724</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007568988899097306</v>
+        <v>0.002358360569978073</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1319936054396429</v>
+        <v>0.2506929228981249</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6665906895766227</v>
+        <v>0.7940357685497617</v>
       </c>
       <c r="O9">
-        <v>1.496818698561327</v>
+        <v>1.267163016626455</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.771153307894735</v>
+        <v>1.172283230444407</v>
       </c>
       <c r="C10">
-        <v>1.077310828901716</v>
+        <v>0.3423834500133296</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.318710926748423</v>
+        <v>0.6452750528707583</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007491824618185048</v>
+        <v>0.002353921097370253</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1424504549624643</v>
+        <v>0.2460705199229167</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6831067054069848</v>
+        <v>0.7968872246758423</v>
       </c>
       <c r="O10">
-        <v>1.766063108933849</v>
+        <v>1.302028356160918</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.045573841612736</v>
+        <v>1.253670051714323</v>
       </c>
       <c r="C11">
-        <v>1.154098862427816</v>
+        <v>0.3649790310422532</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.513011959743821</v>
+        <v>0.6914046423499656</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007457222467149462</v>
+        <v>0.002351994704321794</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1484730695950738</v>
+        <v>0.2442541671303395</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6918578872348178</v>
+        <v>0.798561290646802</v>
       </c>
       <c r="O11">
-        <v>1.896811811107966</v>
+        <v>1.319300413951254</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.149865756913414</v>
+        <v>1.284465461197556</v>
       </c>
       <c r="C12">
-        <v>1.183317070435663</v>
+        <v>0.3735228245896565</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.587759269349334</v>
+        <v>0.7088995885753917</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.000744417890957662</v>
+        <v>0.00235127854600603</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1509572832025157</v>
+        <v>0.2436078760519287</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6953636438089177</v>
+        <v>0.799249259824748</v>
       </c>
       <c r="O12">
-        <v>1.947676005718819</v>
+        <v>1.326046049117338</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.127386766927714</v>
+        <v>1.277834204816429</v>
       </c>
       <c r="C13">
-        <v>1.177017712038094</v>
+        <v>0.3716833314300629</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.571605740546602</v>
+        <v>0.7051305195087139</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007446985639136008</v>
+        <v>0.002351432191935703</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1504128405885332</v>
+        <v>0.243745214285326</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6945998486603315</v>
+        <v>0.799098692598804</v>
       </c>
       <c r="O13">
-        <v>1.936658534729929</v>
+        <v>1.324584101439001</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.054146062827328</v>
+        <v>1.25620409634729</v>
       </c>
       <c r="C14">
-        <v>1.156499687876675</v>
+        <v>0.3656821887480817</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.519136831917365</v>
+        <v>0.6928434156457826</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007456148248869579</v>
+        <v>0.002351935518840609</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1486732354487188</v>
+        <v>0.2442001622643168</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.692142378659284</v>
+        <v>0.7986168082263134</v>
       </c>
       <c r="O14">
-        <v>1.900968329948256</v>
+        <v>1.319851259268461</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.009335021597053</v>
+        <v>1.242951869426122</v>
       </c>
       <c r="C15">
-        <v>1.143950911201046</v>
+        <v>0.3620046619080597</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.487156572055468</v>
+        <v>0.6853207449128149</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007461767971132685</v>
+        <v>0.002352245554495849</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1476348688903855</v>
+        <v>0.2444842485240564</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6906625275491081</v>
+        <v>0.798328672547953</v>
       </c>
       <c r="O15">
-        <v>1.879288353384595</v>
+        <v>1.3169790266642</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.75326778098065</v>
+        <v>1.166961111810792</v>
       </c>
       <c r="C16">
-        <v>1.072310662675335</v>
+        <v>0.3409050122208157</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.306165588595647</v>
+        <v>0.6422639950437343</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.000749409498817587</v>
+        <v>0.002354048859971948</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1420841249172398</v>
+        <v>0.2461950148539565</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6825608625557891</v>
+        <v>0.7967853909817819</v>
       </c>
       <c r="O16">
-        <v>1.757698318990805</v>
+        <v>1.300928170767975</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.596769931660788</v>
+        <v>1.120301689076143</v>
       </c>
       <c r="C17">
-        <v>1.028582220217402</v>
+        <v>0.327938674526564</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.19700463796579</v>
+        <v>0.6158953628066257</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007514046306652107</v>
+        <v>0.002355178936536806</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1390177520920659</v>
+        <v>0.2473181090596803</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6779173014466693</v>
+        <v>0.7959350577736188</v>
       </c>
       <c r="O17">
-        <v>1.685335199608431</v>
+        <v>1.291444529108247</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.506951970825924</v>
+        <v>1.093449519120838</v>
       </c>
       <c r="C18">
-        <v>1.003503528326348</v>
+        <v>0.3204726041081187</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.134846069738074</v>
+        <v>0.6007448043084196</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007525569686702375</v>
+        <v>0.002355837698291098</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1373717750840662</v>
+        <v>0.2479910203075804</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6753620711006221</v>
+        <v>0.7954814558691936</v>
       </c>
       <c r="O18">
-        <v>1.644481277846381</v>
+        <v>1.286122533925635</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.476572744536497</v>
+        <v>1.084355310887929</v>
       </c>
       <c r="C19">
-        <v>0.9950240580617731</v>
+        <v>0.3179433215864265</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.113902711684261</v>
+        <v>0.5956177677434624</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007529479889802977</v>
+        <v>0.002356062252384202</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1368340733851738</v>
+        <v>0.2482234726994932</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6745163700821024</v>
+        <v>0.7953339741644498</v>
       </c>
       <c r="O19">
-        <v>1.630775956023541</v>
+        <v>1.28434333333098</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.613408689572964</v>
+        <v>1.125270215093451</v>
       </c>
       <c r="C20">
-        <v>1.033229477324653</v>
+        <v>0.3293198106417776</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.208558723546247</v>
+        <v>0.6187006798457872</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007511917581807401</v>
+        <v>0.002355057730839899</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.139331840186685</v>
+        <v>0.2471957634211712</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6783995534389078</v>
+        <v>0.7960219056065228</v>
       </c>
       <c r="O20">
-        <v>1.692957823791062</v>
+        <v>1.292440325263101</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.07564786841283</v>
+        <v>1.262558044281263</v>
       </c>
       <c r="C21">
-        <v>1.162522295357121</v>
+        <v>0.3674452147227498</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.534514818915667</v>
+        <v>0.6964516954516995</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007453455458792944</v>
+        <v>0.002351787318582521</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1491784910705753</v>
+        <v>0.2440654034101968</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6928588731012439</v>
+        <v>0.7987568840822377</v>
       </c>
       <c r="O21">
-        <v>1.911413306110859</v>
+        <v>1.321235827176224</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.379970855170484</v>
+        <v>1.352143086587375</v>
       </c>
       <c r="C22">
-        <v>1.247854895513171</v>
+        <v>0.3922884921168475</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.754473413089173</v>
+        <v>0.7474229179322123</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007415587181416701</v>
+        <v>0.00234972754942823</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1568122201426476</v>
+        <v>0.2422617137831153</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7034346204409729</v>
+        <v>0.8008592466483719</v>
       </c>
       <c r="O22">
-        <v>2.062159787478095</v>
+        <v>1.341251702567604</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.217319484896109</v>
+        <v>1.30434309254872</v>
       </c>
       <c r="C23">
-        <v>1.202225489420755</v>
+        <v>0.3790359785195392</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.636373032480719</v>
+        <v>0.7202036143974624</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007435771570650244</v>
+        <v>0.002350819806255345</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.15262055260105</v>
+        <v>0.243202105200016</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6976822269430016</v>
+        <v>0.7997084157155854</v>
       </c>
       <c r="O23">
-        <v>1.980914983763597</v>
+        <v>1.330458693986429</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.605885830271802</v>
+        <v>1.123024028644352</v>
       </c>
       <c r="C24">
-        <v>1.031128263176839</v>
+        <v>0.3286954349750033</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.203333268142487</v>
+        <v>0.6174323678046534</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007512879811851477</v>
+        <v>0.002355112499620341</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1391894783759398</v>
+        <v>0.2472509910880092</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6781811719697544</v>
+        <v>0.7959825318303899</v>
       </c>
       <c r="O24">
-        <v>1.689509315807754</v>
+        <v>1.29198972015962</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.953611471199224</v>
+        <v>0.9268762410067666</v>
       </c>
       <c r="C25">
-        <v>0.8492729604514295</v>
+        <v>0.2740828974629039</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.759678120486271</v>
+        <v>0.507179335981661</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007597924148321806</v>
+        <v>0.002360078510230196</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1291336496857767</v>
+        <v>0.2526468698234403</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6615206115645407</v>
+        <v>0.7933210022432888</v>
       </c>
       <c r="O25">
-        <v>1.404005107856364</v>
+        <v>1.255561165833257</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_223/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_223/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7819745094127484</v>
+        <v>2.477277031751328</v>
       </c>
       <c r="C2">
-        <v>0.2335998566035755</v>
+        <v>0.7168376978054596</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4264233615170383</v>
+        <v>1.447241517731385</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002364026894831113</v>
+        <v>0.0007662558338715764</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2574922939564068</v>
+        <v>0.124844416726571</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7925338793933321</v>
+        <v>0.652556917327388</v>
       </c>
       <c r="O2">
-        <v>1.23301000020362</v>
+        <v>1.21329774641984</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6834810727099807</v>
+        <v>2.155922469113705</v>
       </c>
       <c r="C3">
-        <v>0.2059933084904344</v>
+        <v>0.6276340140731236</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3719117739346842</v>
+        <v>1.241899340264339</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.00236688649945028</v>
+        <v>0.0007707795861223073</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2613142563083848</v>
+        <v>0.123575812479281</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7927348538646513</v>
+        <v>0.6483390076001143</v>
       </c>
       <c r="O3">
-        <v>1.220348518214905</v>
+        <v>1.093929637278904</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6228653617803843</v>
+        <v>1.959043466759823</v>
       </c>
       <c r="C4">
-        <v>0.1889585801924625</v>
+        <v>0.5730285625126896</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.338534222790301</v>
+        <v>1.118268429457686</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002368733479126359</v>
+        <v>0.0007736331302084734</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2639244056750307</v>
+        <v>0.1235142702449004</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7932216771413536</v>
+        <v>0.6466041506116795</v>
       </c>
       <c r="O4">
-        <v>1.213853809957669</v>
+        <v>1.024831387962763</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.598129734498599</v>
+        <v>1.878885001585303</v>
       </c>
       <c r="C5">
-        <v>0.1819957606428488</v>
+        <v>0.550804278947453</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3249540513085094</v>
+        <v>1.068409462851989</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002369509138759968</v>
+        <v>0.0007748157723833898</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2650540123980285</v>
+        <v>0.1236570480136479</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7935116613955628</v>
+        <v>0.6461037788426935</v>
       </c>
       <c r="O5">
-        <v>1.211527034112919</v>
+        <v>0.9976351880281982</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5940203661940018</v>
+        <v>1.865578008649578</v>
       </c>
       <c r="C6">
-        <v>0.1808383239067837</v>
+        <v>0.5471152543029802</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3227003151194339</v>
+        <v>1.060159319474465</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002369639327621988</v>
+        <v>0.0007750133647723466</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2652455572543637</v>
+        <v>0.1236905431100865</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7935653518793018</v>
+        <v>0.6460329356430279</v>
       </c>
       <c r="O6">
-        <v>1.211159939588555</v>
+        <v>0.9931747836963893</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6225319056602814</v>
+        <v>1.957962180690032</v>
       </c>
       <c r="C7">
-        <v>0.1888647621275652</v>
+        <v>0.5727287426423402</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3383509914541918</v>
+        <v>1.117594020762738</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002368743846688401</v>
+        <v>0.000773648998656451</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2639393733136224</v>
+        <v>0.1235155321262695</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7932252168016518</v>
+        <v>0.64659657660237</v>
       </c>
       <c r="O7">
-        <v>1.213821137583096</v>
+        <v>1.024460833807495</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7480437027278981</v>
+        <v>2.366360110606877</v>
       </c>
       <c r="C8">
-        <v>0.2240986703062902</v>
+        <v>0.6860370895849428</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4076073590350404</v>
+        <v>1.375871466696253</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.00236499400907926</v>
+        <v>0.0007678003015245773</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2587552491693152</v>
+        <v>0.1242503035658373</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7925278709727621</v>
+        <v>0.6509199088952187</v>
       </c>
       <c r="O8">
-        <v>1.228377628650321</v>
+        <v>1.171211192551795</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9930240884717705</v>
+        <v>3.172577523737459</v>
       </c>
       <c r="C9">
-        <v>0.2925213008762739</v>
+        <v>0.9102509972537121</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5442463263346724</v>
+        <v>1.906552547264184</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002358360569978073</v>
+        <v>0.0007568988898532525</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2506929228981249</v>
+        <v>0.1319936054396429</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7940357685497617</v>
+        <v>0.6665906895766796</v>
       </c>
       <c r="O9">
-        <v>1.267163016626455</v>
+        <v>1.496818698561327</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.172283230444407</v>
+        <v>3.771153307894849</v>
       </c>
       <c r="C10">
-        <v>0.3423834500133296</v>
+        <v>1.077310828901574</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6452750528707583</v>
+        <v>2.318710926748409</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002353921097370253</v>
+        <v>0.0007491824618173204</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2460705199229167</v>
+        <v>0.1424504549624643</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7968872246758423</v>
+        <v>0.6831067054069848</v>
       </c>
       <c r="O10">
-        <v>1.302028356160918</v>
+        <v>1.766063108933906</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.253670051714323</v>
+        <v>4.045573841612793</v>
       </c>
       <c r="C11">
-        <v>0.3649790310422532</v>
+        <v>1.154098862427901</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6914046423499656</v>
+        <v>2.513011959743764</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002351994704321794</v>
+        <v>0.0007457222467145835</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2442541671303395</v>
+        <v>0.1484730695950702</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.798561290646802</v>
+        <v>0.6918578872347609</v>
       </c>
       <c r="O11">
-        <v>1.319300413951254</v>
+        <v>1.896811811107966</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.284465461197556</v>
+        <v>4.149865756913471</v>
       </c>
       <c r="C12">
-        <v>0.3735228245896565</v>
+        <v>1.18331707043555</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7088995885753917</v>
+        <v>2.587759269349377</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.00235127854600603</v>
+        <v>0.000744417890983601</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2436078760519287</v>
+        <v>0.1509572832024979</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.799249259824748</v>
+        <v>0.6953636438089177</v>
       </c>
       <c r="O12">
-        <v>1.326046049117338</v>
+        <v>1.947676005718762</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.277834204816429</v>
+        <v>4.127386766927486</v>
       </c>
       <c r="C13">
-        <v>0.3716833314300629</v>
+        <v>1.177017712038179</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7051305195087139</v>
+        <v>2.571605740546602</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002351432191935703</v>
+        <v>0.000744698563885593</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.243745214285326</v>
+        <v>0.1504128405885297</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.799098692598804</v>
+        <v>0.6945998486603315</v>
       </c>
       <c r="O13">
-        <v>1.324584101439001</v>
+        <v>1.936658534729901</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.25620409634729</v>
+        <v>4.054146062827158</v>
       </c>
       <c r="C14">
-        <v>0.3656821887480817</v>
+        <v>1.156499687876675</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6928434156457826</v>
+        <v>2.519136831917336</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002351935518840609</v>
+        <v>0.0007456148248851977</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2442001622643168</v>
+        <v>0.1486732354487188</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7986168082263134</v>
+        <v>0.692142378659284</v>
       </c>
       <c r="O14">
-        <v>1.319851259268461</v>
+        <v>1.900968329948256</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.242951869426122</v>
+        <v>4.00933502159711</v>
       </c>
       <c r="C15">
-        <v>0.3620046619080597</v>
+        <v>1.14395091120079</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6853207449128149</v>
+        <v>2.487156572055454</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002352245554495849</v>
+        <v>0.0007461767971136282</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2444842485240564</v>
+        <v>0.1476348688903713</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.798328672547953</v>
+        <v>0.6906625275491081</v>
       </c>
       <c r="O15">
-        <v>1.3169790266642</v>
+        <v>1.879288353384567</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.166961111810792</v>
+        <v>3.753267780980877</v>
       </c>
       <c r="C16">
-        <v>0.3409050122208157</v>
+        <v>1.072310662675676</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6422639950437343</v>
+        <v>2.306165588595647</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002354048859971948</v>
+        <v>0.0007494094988149964</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2461950148539565</v>
+        <v>0.1420841249172398</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7967853909817819</v>
+        <v>0.6825608625558459</v>
       </c>
       <c r="O16">
-        <v>1.300928170767975</v>
+        <v>1.75769831899072</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.120301689076143</v>
+        <v>3.596769931660788</v>
       </c>
       <c r="C17">
-        <v>0.327938674526564</v>
+        <v>1.028582220217089</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6158953628066257</v>
+        <v>2.197004637965819</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002355178936536806</v>
+        <v>0.0007514046306934353</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2473181090596803</v>
+        <v>0.1390177520920837</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7959350577736188</v>
+        <v>0.6779173014467261</v>
       </c>
       <c r="O17">
-        <v>1.291444529108247</v>
+        <v>1.68533519960846</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.093449519120838</v>
+        <v>3.50695197082598</v>
       </c>
       <c r="C18">
-        <v>0.3204726041081187</v>
+        <v>1.003503528326576</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6007448043084196</v>
+        <v>2.134846069738032</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002355837698291098</v>
+        <v>0.0007525569686964912</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2479910203075804</v>
+        <v>0.1373717750840804</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7954814558691936</v>
+        <v>0.6753620711006647</v>
       </c>
       <c r="O18">
-        <v>1.286122533925635</v>
+        <v>1.64448127784641</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.084355310887929</v>
+        <v>3.476572744536668</v>
       </c>
       <c r="C19">
-        <v>0.3179433215864265</v>
+        <v>0.9950240580621994</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5956177677434624</v>
+        <v>2.113902711684233</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002356062252384202</v>
+        <v>0.0007529479889301638</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2482234726994932</v>
+        <v>0.1368340733851916</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7953339741644498</v>
+        <v>0.6745163700821024</v>
       </c>
       <c r="O19">
-        <v>1.28434333333098</v>
+        <v>1.630775956023513</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.125270215093451</v>
+        <v>3.613408689572907</v>
       </c>
       <c r="C20">
-        <v>0.3293198106417776</v>
+        <v>1.033229477324824</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6187006798457872</v>
+        <v>2.208558723546304</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002355057730839899</v>
+        <v>0.0007511917581526594</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2471957634211712</v>
+        <v>0.1393318401866885</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7960219056065228</v>
+        <v>0.6783995534389504</v>
       </c>
       <c r="O20">
-        <v>1.292440325263101</v>
+        <v>1.692957823791147</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.262558044281263</v>
+        <v>4.075647868412887</v>
       </c>
       <c r="C21">
-        <v>0.3674452147227498</v>
+        <v>1.162522295357121</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6964516954516995</v>
+        <v>2.534514818915667</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002351787318582521</v>
+        <v>0.0007453455459052266</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2440654034101968</v>
+        <v>0.1491784910705753</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7987568840822377</v>
+        <v>0.6928588731011587</v>
       </c>
       <c r="O21">
-        <v>1.321235827176224</v>
+        <v>1.911413306110916</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.352143086587375</v>
+        <v>4.379970855170427</v>
       </c>
       <c r="C22">
-        <v>0.3922884921168475</v>
+        <v>1.247854895513399</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7474229179322123</v>
+        <v>2.754473413089187</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.00234972754942823</v>
+        <v>0.000741558718141607</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2422617137831153</v>
+        <v>0.1568122201426441</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8008592466483719</v>
+        <v>0.7034346204409871</v>
       </c>
       <c r="O22">
-        <v>1.341251702567604</v>
+        <v>2.062159787478095</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.30434309254872</v>
+        <v>4.217319484895938</v>
       </c>
       <c r="C23">
-        <v>0.3790359785195392</v>
+        <v>1.202225489420869</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7202036143974624</v>
+        <v>2.636373032480705</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002350819806255345</v>
+        <v>0.0007435771570377305</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.243202105200016</v>
+        <v>0.1526205526010358</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7997084157155854</v>
+        <v>0.6976822269430585</v>
       </c>
       <c r="O23">
-        <v>1.330458693986429</v>
+        <v>1.98091498376354</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.123024028644352</v>
+        <v>3.605885830271575</v>
       </c>
       <c r="C24">
-        <v>0.3286954349750033</v>
+        <v>1.031128263176782</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6174323678046534</v>
+        <v>2.203333268142501</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002355112499620341</v>
+        <v>0.0007512879812128477</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2472509910880092</v>
+        <v>0.1391894783759398</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7959825318303899</v>
+        <v>0.6781811719698112</v>
       </c>
       <c r="O24">
-        <v>1.29198972015962</v>
+        <v>1.689509315807811</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9268762410067666</v>
+        <v>2.953611471199395</v>
       </c>
       <c r="C25">
-        <v>0.2740828974629039</v>
+        <v>0.8492729604516853</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.507179335981661</v>
+        <v>1.759678120486313</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002360078510230196</v>
+        <v>0.0007597924148821594</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2526468698234403</v>
+        <v>0.1291336496857873</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7933210022432888</v>
+        <v>0.6615206115645549</v>
       </c>
       <c r="O25">
-        <v>1.255561165833257</v>
+        <v>1.404005107856392</v>
       </c>
     </row>
   </sheetData>
